--- a/doc/Estimación tareas v2.xlsx
+++ b/doc/Estimación tareas v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\victor\gitmio\CleverHelpDesk\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39C4BBA3-AF1D-42F2-AD44-14793ECB44CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{728AC46B-C0FE-41E1-89BB-BFC05D72FC82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D7FD454D-755B-4C21-A85B-140666A96631}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D7FD454D-755B-4C21-A85B-140666A96631}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -121,9 +121,6 @@
     <t>Análisis</t>
   </si>
   <si>
-    <t>Definición Requerimientos y Estimación Proyecto</t>
-  </si>
-  <si>
     <t>Módelado diagramas y detallado (modelo ER, diagrama clases, casos uso)</t>
   </si>
   <si>
@@ -170,6 +167,9 @@
   </si>
   <si>
     <t>Pruebas unitarias (10%)</t>
+  </si>
+  <si>
+    <t>Definición Requisitos y Estimación Proyecto</t>
   </si>
 </sst>
 </file>
@@ -680,25 +680,25 @@
   <dimension ref="A6:O46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" customWidth="1"/>
-    <col min="2" max="2" width="10.77734375" customWidth="1"/>
-    <col min="3" max="3" width="83.44140625" customWidth="1"/>
-    <col min="4" max="4" width="10.109375" customWidth="1"/>
-    <col min="5" max="5" width="6.44140625" style="9" customWidth="1"/>
-    <col min="6" max="6" width="10.21875" style="18" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="83.42578125" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" customWidth="1"/>
+    <col min="5" max="5" width="6.42578125" style="9" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" style="18" customWidth="1"/>
     <col min="7" max="7" width="8" customWidth="1"/>
-    <col min="8" max="8" width="9.6640625" customWidth="1"/>
-    <col min="9" max="9" width="9.5546875" customWidth="1"/>
-    <col min="11" max="11" width="15.33203125" customWidth="1"/>
-    <col min="15" max="15" width="15.33203125" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" customWidth="1"/>
+    <col min="11" max="11" width="15.28515625" customWidth="1"/>
+    <col min="15" max="15" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F6" s="21" t="s">
         <v>2</v>
       </c>
@@ -711,7 +711,7 @@
       <c r="K6" s="22"/>
       <c r="L6" s="22"/>
     </row>
-    <row r="7" spans="1:15" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>0</v>
       </c>
@@ -740,7 +740,7 @@
         <v>4</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K7" s="8" t="s">
         <v>22</v>
@@ -752,13 +752,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>27</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="6" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="11"/>
@@ -772,26 +772,26 @@
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
       <c r="J8" s="6">
-        <f t="shared" ref="J8:J10" si="0">(H8+I8)*0.1</f>
+        <f t="shared" ref="J8" si="0">(H8+I8)*0.1</f>
         <v>0</v>
       </c>
       <c r="K8" s="6">
-        <f t="shared" ref="K8:K10" si="1">(H8+I8)*((20-(3*D8))/100)</f>
+        <f t="shared" ref="K8" si="1">(H8+I8)*((20-(3*D8))/100)</f>
         <v>0</v>
       </c>
       <c r="L8" s="6">
-        <f t="shared" ref="L8:L10" si="2">(H8+I8)*0.015</f>
+        <f t="shared" ref="L8" si="2">(H8+I8)*0.015</f>
         <v>0</v>
       </c>
       <c r="M8" s="6"/>
     </row>
-    <row r="9" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>27</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="11"/>
@@ -818,13 +818,13 @@
       </c>
       <c r="M9" s="6"/>
     </row>
-    <row r="10" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>27</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="11"/>
@@ -851,7 +851,7 @@
       </c>
       <c r="M10" s="6"/>
     </row>
-    <row r="11" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -866,13 +866,13 @@
       <c r="L11" s="7"/>
       <c r="M11" s="6"/>
     </row>
-    <row r="12" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D12" s="6">
         <v>5</v>
@@ -903,12 +903,12 @@
       </c>
       <c r="M12" s="6"/>
     </row>
-    <row r="13" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="D13" s="6">
         <v>5</v>
@@ -939,7 +939,7 @@
       </c>
       <c r="M13" s="6"/>
     </row>
-    <row r="14" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -970,13 +970,13 @@
       </c>
       <c r="M14" s="6"/>
     </row>
-    <row r="15" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D15" s="6">
         <v>5</v>
@@ -1009,11 +1009,11 @@
       </c>
       <c r="M15" s="6"/>
     </row>
-    <row r="16" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D16" s="6">
         <v>4</v>
@@ -1046,11 +1046,11 @@
       </c>
       <c r="M16" s="6"/>
     </row>
-    <row r="17" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D17" s="6">
         <v>4</v>
@@ -1079,11 +1079,11 @@
       </c>
       <c r="M17" s="6"/>
     </row>
-    <row r="18" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="11"/>
@@ -1108,11 +1108,11 @@
       </c>
       <c r="M18" s="6"/>
     </row>
-    <row r="19" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="11"/>
@@ -1137,11 +1137,11 @@
       </c>
       <c r="M19" s="6"/>
     </row>
-    <row r="20" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="11"/>
@@ -1168,11 +1168,11 @@
       </c>
       <c r="M20" s="6"/>
     </row>
-    <row r="21" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D21" s="6"/>
       <c r="E21" s="11"/>
@@ -1199,7 +1199,7 @@
       </c>
       <c r="M21" s="6"/>
     </row>
-    <row r="22" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
@@ -1226,11 +1226,11 @@
       </c>
       <c r="M22" s="6"/>
     </row>
-    <row r="23" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D23" s="6"/>
       <c r="E23" s="11"/>
@@ -1257,11 +1257,11 @@
       </c>
       <c r="M23" s="6"/>
     </row>
-    <row r="24" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D24" s="6"/>
       <c r="E24" s="11"/>
@@ -1288,11 +1288,11 @@
       </c>
       <c r="M24" s="6"/>
     </row>
-    <row r="25" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D25" s="6"/>
       <c r="E25" s="11"/>
@@ -1319,11 +1319,11 @@
       </c>
       <c r="M25" s="6"/>
     </row>
-    <row r="26" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D26" s="6"/>
       <c r="E26" s="11"/>
@@ -1350,7 +1350,7 @@
       </c>
       <c r="M26" s="6"/>
     </row>
-    <row r="27" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -1377,7 +1377,7 @@
       </c>
       <c r="M27" s="6"/>
     </row>
-    <row r="28" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
@@ -1404,7 +1404,7 @@
       </c>
       <c r="M28" s="6"/>
     </row>
-    <row r="29" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
@@ -1431,7 +1431,7 @@
       </c>
       <c r="M29" s="6"/>
     </row>
-    <row r="30" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
@@ -1458,7 +1458,7 @@
       </c>
       <c r="M30" s="6"/>
     </row>
-    <row r="31" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
@@ -1485,7 +1485,7 @@
       </c>
       <c r="M31" s="6"/>
     </row>
-    <row r="32" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
@@ -1500,7 +1500,7 @@
       <c r="L32" s="6"/>
       <c r="M32" s="6"/>
     </row>
-    <row r="33" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>5</v>
       </c>
@@ -1517,7 +1517,7 @@
       <c r="L33" s="6"/>
       <c r="M33" s="6"/>
     </row>
-    <row r="34" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
@@ -1532,7 +1532,7 @@
       <c r="L34" s="6"/>
       <c r="M34" s="6"/>
     </row>
-    <row r="35" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -1547,7 +1547,7 @@
       <c r="L35" s="6"/>
       <c r="M35" s="6"/>
     </row>
-    <row r="36" spans="1:13" s="2" customFormat="1" ht="51.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" s="2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
       <c r="B36" s="19" t="s">
         <v>25</v>
@@ -1567,7 +1567,7 @@
       <c r="L36" s="6"/>
       <c r="M36" s="6"/>
     </row>
-    <row r="37" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
@@ -1582,7 +1582,7 @@
       <c r="L37" s="6"/>
       <c r="M37" s="6"/>
     </row>
-    <row r="38" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
@@ -1597,7 +1597,7 @@
       <c r="L38" s="6"/>
       <c r="M38" s="6"/>
     </row>
-    <row r="39" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
@@ -1612,7 +1612,7 @@
       <c r="L39" s="6"/>
       <c r="M39" s="6"/>
     </row>
-    <row r="40" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
@@ -1627,7 +1627,7 @@
       <c r="L40" s="6"/>
       <c r="M40" s="6"/>
     </row>
-    <row r="41" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
@@ -1642,7 +1642,7 @@
       <c r="L41" s="6"/>
       <c r="M41" s="6"/>
     </row>
-    <row r="42" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6"/>
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
@@ -1657,7 +1657,7 @@
       <c r="L42" s="6"/>
       <c r="M42" s="6"/>
     </row>
-    <row r="43" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6"/>
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
@@ -1672,7 +1672,7 @@
       <c r="L43" s="6"/>
       <c r="M43" s="6"/>
     </row>
-    <row r="44" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
@@ -1687,7 +1687,7 @@
       <c r="L44" s="6"/>
       <c r="M44" s="6"/>
     </row>
-    <row r="45" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6"/>
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
@@ -1702,7 +1702,7 @@
       <c r="L45" s="6"/>
       <c r="M45" s="6"/>
     </row>
-    <row r="46" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E46" s="13"/>
       <c r="F46" s="17"/>
     </row>
@@ -1724,13 +1724,13 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.44140625" customWidth="1"/>
-    <col min="4" max="4" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -1742,7 +1742,7 @@
       </c>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1750,7 +1750,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -1761,7 +1761,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1769,7 +1769,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
         <v>17</v>
       </c>
@@ -1780,23 +1780,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <MediaLengthInSeconds xmlns="344005f0-8c48-425a-b4c2-a05af3399037" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101004B10983200D81C459FEA092706B088D6" ma:contentTypeVersion="6" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="d8cc28cfeb9ab0ef0eb25395b97e21a7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="344005f0-8c48-425a-b4c2-a05af3399037" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fe9afcc106c6e9baebde8d4978ed2941" ns2:_="">
     <xsd:import namespace="344005f0-8c48-425a-b4c2-a05af3399037"/>
@@ -1954,25 +1937,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{04B68B77-2DC6-42F7-B45F-F6E8F34D7F04}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="344005f0-8c48-425a-b4c2-a05af3399037"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BD985E29-B6CE-4EE8-950E-6CFA8B21E62F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <MediaLengthInSeconds xmlns="344005f0-8c48-425a-b4c2-a05af3399037" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D898432-F86E-490A-8D97-9AA535407FFC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1988,4 +1970,22 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BD985E29-B6CE-4EE8-950E-6CFA8B21E62F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{04B68B77-2DC6-42F7-B45F-F6E8F34D7F04}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="344005f0-8c48-425a-b4c2-a05af3399037"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/doc/Estimación tareas v2.xlsx
+++ b/doc/Estimación tareas v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\victor\gitmio\CleverHelpDesk\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{728AC46B-C0FE-41E1-89BB-BFC05D72FC82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBD60B26-0382-45E3-BD2F-FE755BC40E5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D7FD454D-755B-4C21-A85B-140666A96631}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D7FD454D-755B-4C21-A85B-140666A96631}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="53">
   <si>
     <t>Fase</t>
   </si>
@@ -136,9 +136,6 @@
     <t>Codificación</t>
   </si>
   <si>
-    <t>BackEnd</t>
-  </si>
-  <si>
     <t>Especificación de funcionalidades, detalle de clases, revisión módelo BD, etc</t>
   </si>
   <si>
@@ -163,13 +160,40 @@
     <t>Cliente. Formulario consulta "tickects"</t>
   </si>
   <si>
-    <t>Cliente. Formulario detalle/creación/modificación ticket. Funcionalidad eliminar.</t>
-  </si>
-  <si>
     <t>Pruebas unitarias (10%)</t>
   </si>
   <si>
     <t>Definición Requisitos y Estimación Proyecto</t>
+  </si>
+  <si>
+    <t>BackEnd. Controller</t>
+  </si>
+  <si>
+    <t>BackEnd. Servicio y lógica negocio</t>
+  </si>
+  <si>
+    <t>Cliente. Formulario detalle/creación/modificación ticket. Funcionalidad eliminar. Gestión del ticket. Adjuntar/consultar comentarios. Ver histórico.</t>
+  </si>
+  <si>
+    <t>Cliente. Gestión Usuarios</t>
+  </si>
+  <si>
+    <t>Cliente. Gestión Proyectos</t>
+  </si>
+  <si>
+    <t>Pruebas</t>
+  </si>
+  <si>
+    <t>Realización pruebas de verificación y validación</t>
+  </si>
+  <si>
+    <t>Otros</t>
+  </si>
+  <si>
+    <t>Creación diapositivas video</t>
+  </si>
+  <si>
+    <t>Creación video presentación proyecto</t>
   </si>
 </sst>
 </file>
@@ -299,7 +323,7 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -337,9 +361,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -677,41 +698,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75B32B49-A0E7-4DA8-87F7-460749DA38B6}">
-  <dimension ref="A6:O46"/>
+  <dimension ref="A6:O43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" customWidth="1"/>
-    <col min="3" max="3" width="83.42578125" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" customWidth="1"/>
-    <col min="5" max="5" width="6.42578125" style="9" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" style="18" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="83.44140625" customWidth="1"/>
+    <col min="4" max="4" width="10.109375" customWidth="1"/>
+    <col min="5" max="5" width="6.44140625" style="9" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" style="17" customWidth="1"/>
     <col min="7" max="7" width="8" customWidth="1"/>
-    <col min="8" max="8" width="9.7109375" customWidth="1"/>
-    <col min="9" max="9" width="9.5703125" customWidth="1"/>
-    <col min="11" max="11" width="15.28515625" customWidth="1"/>
-    <col min="15" max="15" width="15.28515625" customWidth="1"/>
+    <col min="8" max="8" width="9.6640625" customWidth="1"/>
+    <col min="9" max="9" width="9.5546875" customWidth="1"/>
+    <col min="11" max="11" width="15.33203125" customWidth="1"/>
+    <col min="15" max="15" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F6" s="21" t="s">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="F6" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="22" t="s">
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
-    </row>
-    <row r="7" spans="1:15" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+    </row>
+    <row r="7" spans="1:15" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>0</v>
       </c>
@@ -740,7 +761,7 @@
         <v>4</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K7" s="8" t="s">
         <v>22</v>
@@ -752,13 +773,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>27</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="11"/>
@@ -785,7 +806,7 @@
       </c>
       <c r="M8" s="6"/>
     </row>
-    <row r="9" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>27</v>
       </c>
@@ -818,7 +839,7 @@
       </c>
       <c r="M9" s="6"/>
     </row>
-    <row r="10" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>27</v>
       </c>
@@ -851,28 +872,49 @@
       </c>
       <c r="M10" s="6"/>
     </row>
-    <row r="11" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
+    <row r="11" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="6">
+        <v>5</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="14">
+        <f>G11+H11+I11+J11+K11+L11</f>
+        <v>9.32</v>
+      </c>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6">
+        <v>8</v>
+      </c>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6">
+        <f>(H11+I11)*0.1</f>
+        <v>0.8</v>
+      </c>
+      <c r="K11" s="6">
+        <f>(H11+I11)*((20-(3*D11))/100)</f>
+        <v>0.4</v>
+      </c>
+      <c r="L11" s="6">
+        <f>(H11+I11)*0.015</f>
+        <v>0.12</v>
+      </c>
       <c r="M11" s="6"/>
     </row>
-    <row r="12" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6" t="s">
-        <v>34</v>
+      <c r="C12" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="D12" s="6">
         <v>5</v>
@@ -881,34 +923,35 @@
         <v>24</v>
       </c>
       <c r="F12" s="14">
-        <f>G12+H12+I12+J12+K12+L12</f>
-        <v>9.32</v>
+        <f t="shared" ref="F12:F28" si="7">G12+H12+I12+J12+K12+L12</f>
+        <v>6.9899999999999993</v>
       </c>
       <c r="G12" s="6"/>
       <c r="H12" s="6">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I12" s="6"/>
       <c r="J12" s="6">
-        <f>(H12+I12)*0.1</f>
-        <v>0.8</v>
+        <f t="shared" ref="J12:J15" si="8">(H12+I12)*0.1</f>
+        <v>0.60000000000000009</v>
       </c>
       <c r="K12" s="6">
-        <f>(H12+I12)*((20-(3*D12))/100)</f>
-        <v>0.4</v>
+        <f t="shared" ref="K12:K15" si="9">(H12+I12)*((20-(3*D12))/100)</f>
+        <v>0.30000000000000004</v>
       </c>
       <c r="L12" s="6">
-        <f>(H12+I12)*0.015</f>
-        <v>0.12</v>
+        <f t="shared" ref="L12:L15" si="10">(H12+I12)*0.015</f>
+        <v>0.09</v>
       </c>
       <c r="M12" s="6"/>
     </row>
-    <row r="13" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="D13" s="6">
         <v>5</v>
@@ -917,203 +960,205 @@
         <v>24</v>
       </c>
       <c r="F13" s="14">
-        <f t="shared" ref="F13:F31" si="7">G13+H13+I13+J13+K13+L13</f>
-        <v>6.9899999999999993</v>
+        <f t="shared" si="7"/>
+        <v>18.64</v>
       </c>
       <c r="G13" s="6"/>
       <c r="H13" s="6">
-        <v>6</v>
-      </c>
-      <c r="I13" s="6"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="6">
+        <v>16</v>
+      </c>
       <c r="J13" s="6">
-        <f t="shared" ref="J13:J17" si="8">(H13+I13)*0.1</f>
-        <v>0.60000000000000009</v>
+        <f t="shared" si="8"/>
+        <v>1.6</v>
       </c>
       <c r="K13" s="6">
-        <f t="shared" ref="K13:K17" si="9">(H13+I13)*((20-(3*D13))/100)</f>
-        <v>0.30000000000000004</v>
+        <f t="shared" si="9"/>
+        <v>0.8</v>
       </c>
       <c r="L13" s="6">
-        <f t="shared" ref="L13:L17" si="10">(H13+I13)*0.015</f>
-        <v>0.09</v>
+        <f t="shared" si="10"/>
+        <v>0.24</v>
       </c>
       <c r="M13" s="6"/>
     </row>
-    <row r="14" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
+      <c r="C14" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="D14" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E14" s="11" t="s">
         <v>24</v>
       </c>
       <c r="F14" s="14">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>9.56</v>
       </c>
       <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
+      <c r="H14" s="6">
+        <v>0</v>
+      </c>
+      <c r="I14" s="6">
+        <v>8</v>
+      </c>
       <c r="J14" s="6">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="K14" s="6">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>0.64</v>
       </c>
       <c r="L14" s="6">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="M14" s="6"/>
     </row>
-    <row r="15" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>32</v>
-      </c>
+    <row r="15" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="D15" s="6">
-        <v>5</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>24</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="E15" s="11"/>
       <c r="F15" s="14">
         <f t="shared" si="7"/>
-        <v>11.65</v>
+        <v>9.56</v>
       </c>
       <c r="G15" s="6"/>
       <c r="H15" s="6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I15" s="6">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J15" s="6">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="K15" s="6">
         <f t="shared" si="9"/>
-        <v>0.5</v>
+        <v>0.64</v>
       </c>
       <c r="L15" s="6">
         <f t="shared" si="10"/>
-        <v>0.15</v>
+        <v>0.12</v>
       </c>
       <c r="M15" s="6"/>
     </row>
-    <row r="16" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="D16" s="6">
-        <v>4</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>24</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="E16" s="11"/>
       <c r="F16" s="14">
         <f t="shared" si="7"/>
-        <v>23.900000000000002</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="G16" s="6"/>
-      <c r="H16" s="6">
-        <v>14</v>
-      </c>
+      <c r="H16" s="6"/>
       <c r="I16" s="6">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="J16" s="6">
-        <f t="shared" si="8"/>
-        <v>2</v>
+        <f t="shared" ref="J16:J28" si="11">(H16+I16)*0.1</f>
+        <v>1.6</v>
       </c>
       <c r="K16" s="6">
-        <f t="shared" si="9"/>
-        <v>1.6</v>
+        <f t="shared" ref="K16:K28" si="12">(H16+I16)*((20-(3*D16))/100)</f>
+        <v>1.76</v>
       </c>
       <c r="L16" s="6">
-        <f t="shared" si="10"/>
-        <v>0.3</v>
+        <f t="shared" ref="L16:L28" si="13">(H16+I16)*0.015</f>
+        <v>0.24</v>
       </c>
       <c r="M16" s="6"/>
     </row>
-    <row r="17" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D17" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E17" s="11"/>
       <c r="F17" s="14">
         <f t="shared" si="7"/>
-        <v>19.12</v>
+        <v>7.35</v>
       </c>
       <c r="G17" s="6"/>
-      <c r="H17" s="6">
-        <v>16</v>
-      </c>
-      <c r="I17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6">
+        <v>6</v>
+      </c>
       <c r="J17" s="6">
-        <f t="shared" si="8"/>
-        <v>1.6</v>
+        <f t="shared" si="11"/>
+        <v>0.60000000000000009</v>
       </c>
       <c r="K17" s="6">
-        <f t="shared" si="9"/>
-        <v>1.28</v>
+        <f t="shared" si="12"/>
+        <v>0.66</v>
       </c>
       <c r="L17" s="6">
-        <f t="shared" si="10"/>
-        <v>0.24</v>
+        <f t="shared" si="13"/>
+        <v>0.09</v>
       </c>
       <c r="M17" s="6"/>
     </row>
-    <row r="18" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" s="6"/>
+        <v>37</v>
+      </c>
+      <c r="D18" s="6">
+        <v>0</v>
+      </c>
       <c r="E18" s="11"/>
       <c r="F18" s="14">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>15.78</v>
       </c>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
+      <c r="I18" s="6">
+        <v>12</v>
+      </c>
       <c r="J18" s="6">
-        <f t="shared" ref="J18:J31" si="11">(H18+I18)*0.1</f>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>1.2000000000000002</v>
       </c>
       <c r="K18" s="6">
-        <f t="shared" ref="K18:K31" si="12">(H18+I18)*((20-(3*D18))/100)</f>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>2.4000000000000004</v>
       </c>
       <c r="L18" s="6">
-        <f t="shared" ref="L18:L31" si="13">(H18+I18)*0.015</f>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>0.18</v>
       </c>
       <c r="M18" s="6"/>
     </row>
-    <row r="19" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
-      <c r="C19" s="6" t="s">
-        <v>33</v>
-      </c>
+      <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="11"/>
       <c r="F19" s="14">
@@ -1137,232 +1182,260 @@
       </c>
       <c r="M19" s="6"/>
     </row>
-    <row r="20" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D20" s="6"/>
+        <v>38</v>
+      </c>
+      <c r="D20" s="6">
+        <v>3</v>
+      </c>
       <c r="E20" s="11"/>
       <c r="F20" s="14">
         <f t="shared" si="7"/>
-        <v>5.26</v>
+        <v>12.25</v>
       </c>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="J20" s="6">
         <f t="shared" si="11"/>
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="K20" s="6">
         <f t="shared" si="12"/>
-        <v>0.8</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="L20" s="6">
         <f t="shared" si="13"/>
-        <v>0.06</v>
+        <v>0.15</v>
       </c>
       <c r="M20" s="6"/>
     </row>
-    <row r="21" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D21" s="6"/>
+        <v>39</v>
+      </c>
+      <c r="D21" s="6">
+        <v>5</v>
+      </c>
       <c r="E21" s="11"/>
       <c r="F21" s="14">
         <f t="shared" si="7"/>
-        <v>10.52</v>
+        <v>4.66</v>
       </c>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
       <c r="I21" s="6">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J21" s="6">
         <f t="shared" si="11"/>
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="K21" s="6">
         <f t="shared" si="12"/>
-        <v>1.6</v>
+        <v>0.2</v>
       </c>
       <c r="L21" s="6">
         <f t="shared" si="13"/>
-        <v>0.12</v>
+        <v>0.06</v>
       </c>
       <c r="M21" s="6"/>
     </row>
-    <row r="22" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
+      <c r="C22" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" s="6">
+        <v>4</v>
+      </c>
       <c r="E22" s="11"/>
       <c r="F22" s="14">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>14.34</v>
       </c>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
+      <c r="I22" s="6">
+        <v>12</v>
+      </c>
       <c r="J22" s="6">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1.2000000000000002</v>
       </c>
       <c r="K22" s="6">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="L22" s="6">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="M22" s="6"/>
     </row>
-    <row r="23" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D23" s="6"/>
+        <v>45</v>
+      </c>
+      <c r="D23" s="6">
+        <v>3</v>
+      </c>
       <c r="E23" s="11"/>
       <c r="F23" s="14">
         <f t="shared" si="7"/>
-        <v>13.15</v>
+        <v>36.75</v>
       </c>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
       <c r="I23" s="6">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="J23" s="6">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K23" s="6">
         <f t="shared" si="12"/>
-        <v>2</v>
+        <v>3.3</v>
       </c>
       <c r="L23" s="6">
         <f t="shared" si="13"/>
-        <v>0.15</v>
+        <v>0.44999999999999996</v>
       </c>
       <c r="M23" s="6"/>
     </row>
-    <row r="24" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D24" s="6"/>
+        <v>46</v>
+      </c>
+      <c r="D24" s="6">
+        <v>5</v>
+      </c>
       <c r="E24" s="11"/>
       <c r="F24" s="14">
         <f t="shared" si="7"/>
-        <v>5.26</v>
+        <v>6.9899999999999993</v>
       </c>
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
       <c r="I24" s="6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J24" s="6">
         <f t="shared" si="11"/>
-        <v>0.4</v>
+        <v>0.60000000000000009</v>
       </c>
       <c r="K24" s="6">
         <f t="shared" si="12"/>
-        <v>0.8</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="L24" s="6">
         <f t="shared" si="13"/>
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
       <c r="M24" s="6"/>
     </row>
-    <row r="25" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="6"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D25" s="6"/>
+        <v>47</v>
+      </c>
+      <c r="D25" s="6">
+        <v>5</v>
+      </c>
       <c r="E25" s="11"/>
       <c r="F25" s="14">
         <f t="shared" si="7"/>
-        <v>15.78</v>
+        <v>6.9899999999999993</v>
       </c>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
       <c r="I25" s="6">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="J25" s="6">
         <f t="shared" si="11"/>
-        <v>1.2000000000000002</v>
+        <v>0.60000000000000009</v>
       </c>
       <c r="K25" s="6">
         <f t="shared" si="12"/>
-        <v>2.4000000000000004</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="L25" s="6">
         <f t="shared" si="13"/>
-        <v>0.18</v>
+        <v>0.09</v>
       </c>
       <c r="M25" s="6"/>
     </row>
-    <row r="26" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
+    <row r="26" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="6" t="s">
+        <v>48</v>
+      </c>
       <c r="B26" s="6"/>
       <c r="C26" s="6" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="D26" s="6"/>
       <c r="E26" s="11"/>
       <c r="F26" s="14">
         <f t="shared" si="7"/>
-        <v>31.56</v>
-      </c>
-      <c r="G26" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="G26" s="6">
+        <v>15</v>
+      </c>
       <c r="H26" s="6"/>
       <c r="I26" s="6">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="J26" s="6">
         <f t="shared" si="11"/>
-        <v>2.4000000000000004</v>
+        <v>0</v>
       </c>
       <c r="K26" s="6">
         <f t="shared" si="12"/>
-        <v>4.8000000000000007</v>
+        <v>0</v>
       </c>
       <c r="L26" s="6">
         <f t="shared" si="13"/>
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="M26" s="6"/>
     </row>
-    <row r="27" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="6"/>
+    <row r="27" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="6" t="s">
+        <v>50</v>
+      </c>
       <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
+      <c r="C27" s="6" t="s">
+        <v>51</v>
+      </c>
       <c r="D27" s="6"/>
       <c r="E27" s="11"/>
       <c r="F27" s="14">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="G27" s="6"/>
+        <v>8</v>
+      </c>
+      <c r="G27" s="6">
+        <v>8</v>
+      </c>
       <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
+      <c r="I27" s="6">
+        <v>0</v>
+      </c>
       <c r="J27" s="6">
         <f t="shared" si="11"/>
         <v>0</v>
@@ -1377,19 +1450,27 @@
       </c>
       <c r="M27" s="6"/>
     </row>
-    <row r="28" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="6"/>
+    <row r="28" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="6" t="s">
+        <v>50</v>
+      </c>
       <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
+      <c r="C28" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="D28" s="6"/>
       <c r="E28" s="11"/>
       <c r="F28" s="14">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="G28" s="6"/>
+        <v>8</v>
+      </c>
+      <c r="G28" s="6">
+        <v>8</v>
+      </c>
       <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
+      <c r="I28" s="6">
+        <v>0</v>
+      </c>
       <c r="J28" s="6">
         <f t="shared" si="11"/>
         <v>0</v>
@@ -1404,108 +1485,77 @@
       </c>
       <c r="M28" s="6"/>
     </row>
-    <row r="29" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="6"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="14">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="K29" s="6">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="L29" s="6">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
+    <row r="29" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
       <c r="M29" s="6"/>
     </row>
-    <row r="30" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="6"/>
+    <row r="30" spans="1:13" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A30" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
       <c r="E30" s="11"/>
-      <c r="F30" s="14">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
+      <c r="F30" s="14"/>
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
-      <c r="J30" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="K30" s="6">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="L30" s="6">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
       <c r="M30" s="6"/>
     </row>
-    <row r="31" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="6"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="14">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="K31" s="6">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="L31" s="6">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
+    <row r="31" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
       <c r="M31" s="6"/>
     </row>
-    <row r="32" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="7"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
+    <row r="32" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="6"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
       <c r="J32" s="6"/>
       <c r="K32" s="6"/>
       <c r="L32" s="6"/>
       <c r="M32" s="6"/>
     </row>
-    <row r="33" spans="1:13" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
+    <row r="33" spans="1:13" s="2" customFormat="1" ht="103.2" x14ac:dyDescent="0.3">
+      <c r="A33" s="6"/>
+      <c r="B33" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C33" s="19">
+        <f>SUM(F8:F31)</f>
+        <v>233.78000000000003</v>
+      </c>
       <c r="D33" s="6"/>
       <c r="E33" s="11"/>
       <c r="F33" s="14"/>
@@ -1517,22 +1567,22 @@
       <c r="L33" s="6"/>
       <c r="M33" s="6"/>
     </row>
-    <row r="34" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="7"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="7"/>
+    <row r="34" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="6"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
       <c r="J34" s="6"/>
       <c r="K34" s="6"/>
       <c r="L34" s="6"/>
       <c r="M34" s="6"/>
     </row>
-    <row r="35" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -1547,15 +1597,10 @@
       <c r="L35" s="6"/>
       <c r="M35" s="6"/>
     </row>
-    <row r="36" spans="1:13" s="2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="6"/>
-      <c r="B36" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C36" s="20">
-        <f>SUM(F8:F17)</f>
-        <v>94.98</v>
-      </c>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
       <c r="D36" s="6"/>
       <c r="E36" s="11"/>
       <c r="F36" s="14"/>
@@ -1567,7 +1612,7 @@
       <c r="L36" s="6"/>
       <c r="M36" s="6"/>
     </row>
-    <row r="37" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="6"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
@@ -1582,7 +1627,7 @@
       <c r="L37" s="6"/>
       <c r="M37" s="6"/>
     </row>
-    <row r="38" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
@@ -1597,7 +1642,7 @@
       <c r="L38" s="6"/>
       <c r="M38" s="6"/>
     </row>
-    <row r="39" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="6"/>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
@@ -1612,7 +1657,7 @@
       <c r="L39" s="6"/>
       <c r="M39" s="6"/>
     </row>
-    <row r="40" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="6"/>
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
@@ -1627,7 +1672,7 @@
       <c r="L40" s="6"/>
       <c r="M40" s="6"/>
     </row>
-    <row r="41" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="6"/>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
@@ -1642,7 +1687,7 @@
       <c r="L41" s="6"/>
       <c r="M41" s="6"/>
     </row>
-    <row r="42" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="6"/>
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
@@ -1657,54 +1702,9 @@
       <c r="L42" s="6"/>
       <c r="M42" s="6"/>
     </row>
-    <row r="43" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="6"/>
-      <c r="B43" s="6"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="14"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
-      <c r="I43" s="6"/>
-      <c r="J43" s="6"/>
-      <c r="K43" s="6"/>
-      <c r="L43" s="6"/>
-      <c r="M43" s="6"/>
-    </row>
-    <row r="44" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="6"/>
-      <c r="B44" s="6"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="14"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="6"/>
-      <c r="I44" s="6"/>
-      <c r="J44" s="6"/>
-      <c r="K44" s="6"/>
-      <c r="L44" s="6"/>
-      <c r="M44" s="6"/>
-    </row>
-    <row r="45" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="6"/>
-      <c r="B45" s="6"/>
-      <c r="C45" s="6"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="14"/>
-      <c r="G45" s="6"/>
-      <c r="H45" s="6"/>
-      <c r="I45" s="6"/>
-      <c r="J45" s="6"/>
-      <c r="K45" s="6"/>
-      <c r="L45" s="6"/>
-      <c r="M45" s="6"/>
-    </row>
-    <row r="46" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E46" s="13"/>
-      <c r="F46" s="17"/>
+    <row r="43" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E43" s="13"/>
+      <c r="F43" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1724,13 +1724,13 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.44140625" customWidth="1"/>
+    <col min="4" max="4" width="15.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -1742,7 +1742,7 @@
       </c>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1750,7 +1750,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -1761,7 +1761,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1769,7 +1769,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D5" t="s">
         <v>17</v>
       </c>
@@ -1780,6 +1780,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <MediaLengthInSeconds xmlns="344005f0-8c48-425a-b4c2-a05af3399037" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101004B10983200D81C459FEA092706B088D6" ma:contentTypeVersion="6" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="d8cc28cfeb9ab0ef0eb25395b97e21a7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="344005f0-8c48-425a-b4c2-a05af3399037" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fe9afcc106c6e9baebde8d4978ed2941" ns2:_="">
     <xsd:import namespace="344005f0-8c48-425a-b4c2-a05af3399037"/>
@@ -1937,24 +1954,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{04B68B77-2DC6-42F7-B45F-F6E8F34D7F04}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="344005f0-8c48-425a-b4c2-a05af3399037"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <MediaLengthInSeconds xmlns="344005f0-8c48-425a-b4c2-a05af3399037" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BD985E29-B6CE-4EE8-950E-6CFA8B21E62F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D898432-F86E-490A-8D97-9AA535407FFC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1970,22 +1988,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BD985E29-B6CE-4EE8-950E-6CFA8B21E62F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{04B68B77-2DC6-42F7-B45F-F6E8F34D7F04}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="344005f0-8c48-425a-b4c2-a05af3399037"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/doc/Estimación tareas v2.xlsx
+++ b/doc/Estimación tareas v2.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\victor\gitmio\CleverHelpDesk\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBD60B26-0382-45E3-BD2F-FE755BC40E5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{170C4897-9353-4CAD-9EF5-EEABF027BEFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D7FD454D-755B-4C21-A85B-140666A96631}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{D7FD454D-755B-4C21-A85B-140666A96631}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
+    <sheet name="Cálculo métrica" sheetId="1" r:id="rId1"/>
+    <sheet name="Horas semanales" sheetId="3" r:id="rId2"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="78">
   <si>
     <t>Fase</t>
   </si>
@@ -58,9 +59,6 @@
     <t>ID</t>
   </si>
   <si>
-    <t>TOTAL</t>
-  </si>
-  <si>
     <t>Tipos Dificultad</t>
   </si>
   <si>
@@ -194,13 +192,91 @@
   </si>
   <si>
     <t>Creación video presentación proyecto</t>
+  </si>
+  <si>
+    <t>A01</t>
+  </si>
+  <si>
+    <t>A02</t>
+  </si>
+  <si>
+    <t>D01</t>
+  </si>
+  <si>
+    <t>C01</t>
+  </si>
+  <si>
+    <t>C11</t>
+  </si>
+  <si>
+    <t>P01</t>
+  </si>
+  <si>
+    <t>O01</t>
+  </si>
+  <si>
+    <t>D02</t>
+  </si>
+  <si>
+    <t>C12</t>
+  </si>
+  <si>
+    <t>C02</t>
+  </si>
+  <si>
+    <t>O02</t>
+  </si>
+  <si>
+    <t>C03</t>
+  </si>
+  <si>
+    <t>C04</t>
+  </si>
+  <si>
+    <t>C05</t>
+  </si>
+  <si>
+    <t>C06</t>
+  </si>
+  <si>
+    <t>C07</t>
+  </si>
+  <si>
+    <t>C08</t>
+  </si>
+  <si>
+    <t>C09</t>
+  </si>
+  <si>
+    <t>C10</t>
+  </si>
+  <si>
+    <t>Memoria revisión y finalización</t>
+  </si>
+  <si>
+    <t>O03</t>
+  </si>
+  <si>
+    <t>O04</t>
+  </si>
+  <si>
+    <t>Estimación (horas)</t>
+  </si>
+  <si>
+    <t>Total (horas)</t>
+  </si>
+  <si>
+    <t>Semana</t>
+  </si>
+  <si>
+    <t>Horas trabajo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -240,6 +316,27 @@
     </font>
     <font>
       <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -323,7 +420,7 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -381,6 +478,25 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -698,28 +814,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75B32B49-A0E7-4DA8-87F7-460749DA38B6}">
-  <dimension ref="A6:O43"/>
+  <dimension ref="A6:O44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" customWidth="1"/>
-    <col min="3" max="3" width="83.44140625" customWidth="1"/>
-    <col min="4" max="4" width="10.109375" customWidth="1"/>
-    <col min="5" max="5" width="6.44140625" style="9" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" style="17" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="56.28515625" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="1.7109375" style="9" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" style="17" customWidth="1"/>
     <col min="7" max="7" width="8" customWidth="1"/>
-    <col min="8" max="8" width="9.6640625" customWidth="1"/>
-    <col min="9" max="9" width="9.5546875" customWidth="1"/>
-    <col min="11" max="11" width="15.33203125" customWidth="1"/>
-    <col min="15" max="15" width="15.33203125" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" customWidth="1"/>
+    <col min="11" max="11" width="15.28515625" customWidth="1"/>
+    <col min="15" max="15" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F6" s="20" t="s">
         <v>2</v>
       </c>
@@ -727,12 +843,12 @@
       <c r="H6" s="20"/>
       <c r="I6" s="20"/>
       <c r="J6" s="21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K6" s="21"/>
       <c r="L6" s="21"/>
     </row>
-    <row r="7" spans="1:15" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" s="5" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>0</v>
       </c>
@@ -743,324 +859,351 @@
         <v>1</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>7</v>
+        <v>74</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>4</v>
       </c>
       <c r="J7" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>41</v>
-      </c>
-      <c r="K7" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="L7" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="O7" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6" t="s">
-        <v>42</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="11"/>
       <c r="F8" s="14">
-        <f>G8+H8+I8+J8+K8+L8</f>
-        <v>4</v>
+        <f t="shared" ref="F8:F9" si="0">ROUND(G8+H8+I8+J8+K8+L8,0)</f>
+        <v>12</v>
       </c>
       <c r="G8" s="6">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
       <c r="J8" s="6">
-        <f t="shared" ref="J8" si="0">(H8+I8)*0.1</f>
+        <f t="shared" ref="J8" si="1">(H8+I8)*0.1</f>
         <v>0</v>
       </c>
       <c r="K8" s="6">
-        <f t="shared" ref="K8" si="1">(H8+I8)*((20-(3*D8))/100)</f>
+        <f t="shared" ref="K8" si="2">(H8+I8)*((20-(3*D8))/100)</f>
         <v>0</v>
       </c>
       <c r="L8" s="6">
-        <f t="shared" ref="L8" si="2">(H8+I8)*0.015</f>
+        <f t="shared" ref="L8" si="3">(H8+I8)*0.015</f>
         <v>0</v>
       </c>
       <c r="M8" s="6"/>
     </row>
-    <row r="9" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>27</v>
-      </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6" t="s">
-        <v>28</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="11"/>
       <c r="F9" s="14">
-        <f t="shared" ref="F9:F10" si="3">G9+H9+I9+J9+K9+L9</f>
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>15</v>
       </c>
       <c r="G9" s="6">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
       <c r="J9" s="6">
-        <f t="shared" ref="J9:J10" si="4">(H9+I9)*0.1</f>
+        <f t="shared" ref="J9" si="4">(H9+I9)*0.1</f>
         <v>0</v>
       </c>
       <c r="K9" s="6">
-        <f t="shared" ref="K9:K10" si="5">(H9+I9)*((20-(3*D9))/100)</f>
+        <f t="shared" ref="K9" si="5">(H9+I9)*((20-(3*D9))/100)</f>
         <v>0</v>
       </c>
       <c r="L9" s="6">
-        <f t="shared" ref="L9:L10" si="6">(H9+I9)*0.015</f>
+        <f t="shared" ref="L9" si="6">(H9+I9)*0.015</f>
         <v>0</v>
       </c>
       <c r="M9" s="6"/>
     </row>
-    <row r="10" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="6"/>
+        <v>29</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>54</v>
+      </c>
       <c r="C10" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="11"/>
+        <v>32</v>
+      </c>
+      <c r="D10" s="6">
+        <v>5</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>23</v>
+      </c>
       <c r="F10" s="14">
-        <f t="shared" si="3"/>
+        <f>ROUND(G10+H10+I10+J10+K10+L10,0)</f>
+        <v>12</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6">
         <v>10</v>
       </c>
-      <c r="G10" s="6">
-        <v>10</v>
-      </c>
-      <c r="H10" s="6"/>
       <c r="I10" s="6"/>
       <c r="J10" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>(H10+I10)*0.1</f>
+        <v>1</v>
       </c>
       <c r="K10" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f>(H10+I10)*((20-(3*D10))/100)</f>
+        <v>0.5</v>
       </c>
       <c r="L10" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f>(H10+I10)*0.015</f>
+        <v>0.15</v>
       </c>
       <c r="M10" s="6"/>
     </row>
-    <row r="11" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6" t="s">
-        <v>33</v>
       </c>
       <c r="D11" s="6">
         <v>5</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F11" s="14">
-        <f>G11+H11+I11+J11+K11+L11</f>
-        <v>9.32</v>
+        <f t="shared" ref="F11:F28" si="7">ROUND(G11+H11+I11+J11+K11+L11,0)</f>
+        <v>5</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="6">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I11" s="6"/>
       <c r="J11" s="6">
-        <f>(H11+I11)*0.1</f>
-        <v>0.8</v>
+        <f t="shared" ref="J11:J14" si="8">(H11+I11)*0.1</f>
+        <v>0.4</v>
       </c>
       <c r="K11" s="6">
-        <f>(H11+I11)*((20-(3*D11))/100)</f>
-        <v>0.4</v>
+        <f t="shared" ref="K11:K14" si="9">(H11+I11)*((20-(3*D11))/100)</f>
+        <v>0.2</v>
       </c>
       <c r="L11" s="6">
-        <f>(H11+I11)*0.015</f>
-        <v>0.12</v>
+        <f t="shared" ref="L11:L14" si="10">(H11+I11)*0.015</f>
+        <v>0.06</v>
       </c>
       <c r="M11" s="6"/>
     </row>
-    <row r="12" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="2" t="s">
         <v>31</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="D12" s="6">
         <v>5</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F12" s="14">
-        <f t="shared" ref="F12:F28" si="7">G12+H12+I12+J12+K12+L12</f>
-        <v>6.9899999999999993</v>
+        <f t="shared" si="7"/>
+        <v>17</v>
       </c>
       <c r="G12" s="6"/>
       <c r="H12" s="6">
-        <v>6</v>
-      </c>
-      <c r="I12" s="6"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="6">
+        <v>15</v>
+      </c>
       <c r="J12" s="6">
-        <f t="shared" ref="J12:J15" si="8">(H12+I12)*0.1</f>
-        <v>0.60000000000000009</v>
+        <f t="shared" si="8"/>
+        <v>1.5</v>
       </c>
       <c r="K12" s="6">
-        <f t="shared" ref="K12:K15" si="9">(H12+I12)*((20-(3*D12))/100)</f>
-        <v>0.30000000000000004</v>
+        <f t="shared" si="9"/>
+        <v>0.75</v>
       </c>
       <c r="L12" s="6">
-        <f t="shared" ref="L12:L15" si="10">(H12+I12)*0.015</f>
-        <v>0.09</v>
+        <f t="shared" si="10"/>
+        <v>0.22499999999999998</v>
       </c>
       <c r="M12" s="6"/>
     </row>
-    <row r="13" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="6"/>
+        <v>31</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>61</v>
+      </c>
       <c r="C13" s="6" t="s">
         <v>34</v>
       </c>
       <c r="D13" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F13" s="14">
         <f t="shared" si="7"/>
-        <v>18.64</v>
+        <v>8</v>
       </c>
       <c r="G13" s="6"/>
       <c r="H13" s="6">
         <v>0</v>
       </c>
       <c r="I13" s="6">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="J13" s="6">
         <f t="shared" si="8"/>
-        <v>1.6</v>
+        <v>0.70000000000000007</v>
       </c>
       <c r="K13" s="6">
         <f t="shared" si="9"/>
-        <v>0.8</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="L13" s="6">
         <f t="shared" si="10"/>
-        <v>0.24</v>
+        <v>0.105</v>
       </c>
       <c r="M13" s="6"/>
     </row>
-    <row r="14" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
+    <row r="14" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>63</v>
+      </c>
       <c r="C14" s="6" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D14" s="6">
         <v>4</v>
       </c>
-      <c r="E14" s="11" t="s">
-        <v>24</v>
-      </c>
+      <c r="E14" s="11"/>
       <c r="F14" s="14">
         <f t="shared" si="7"/>
-        <v>9.56</v>
+        <v>7</v>
       </c>
       <c r="G14" s="6"/>
       <c r="H14" s="6">
         <v>0</v>
       </c>
       <c r="I14" s="6">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J14" s="6">
         <f t="shared" si="8"/>
-        <v>0.8</v>
+        <v>0.60000000000000009</v>
       </c>
       <c r="K14" s="6">
         <f t="shared" si="9"/>
-        <v>0.64</v>
+        <v>0.48</v>
       </c>
       <c r="L14" s="6">
         <f t="shared" si="10"/>
-        <v>0.12</v>
+        <v>0.09</v>
       </c>
       <c r="M14" s="6"/>
     </row>
-    <row r="15" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
+    <row r="15" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>64</v>
+      </c>
       <c r="C15" s="6" t="s">
         <v>43</v>
       </c>
       <c r="D15" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E15" s="11"/>
       <c r="F15" s="14">
         <f t="shared" si="7"/>
-        <v>9.56</v>
+        <v>15</v>
       </c>
       <c r="G15" s="6"/>
-      <c r="H15" s="6">
-        <v>0</v>
-      </c>
+      <c r="H15" s="6"/>
       <c r="I15" s="6">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="J15" s="6">
-        <f t="shared" si="8"/>
-        <v>0.8</v>
+        <f t="shared" ref="J15:J28" si="11">(H15+I15)*0.1</f>
+        <v>1.2000000000000002</v>
       </c>
       <c r="K15" s="6">
-        <f t="shared" si="9"/>
-        <v>0.64</v>
+        <f t="shared" ref="K15:K28" si="12">(H15+I15)*((20-(3*D15))/100)</f>
+        <v>1.32</v>
       </c>
       <c r="L15" s="6">
-        <f t="shared" si="10"/>
-        <v>0.12</v>
+        <f t="shared" ref="L15:L28" si="13">(H15+I15)*0.015</f>
+        <v>0.18</v>
       </c>
       <c r="M15" s="6"/>
     </row>
-    <row r="16" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
+    <row r="16" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="C16" s="6" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D16" s="6">
         <v>3</v>
@@ -1068,360 +1211,402 @@
       <c r="E16" s="11"/>
       <c r="F16" s="14">
         <f t="shared" si="7"/>
-        <v>19.600000000000001</v>
+        <v>5</v>
       </c>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="J16" s="6">
-        <f t="shared" ref="J16:J28" si="11">(H16+I16)*0.1</f>
-        <v>1.6</v>
+        <f t="shared" si="11"/>
+        <v>0.4</v>
       </c>
       <c r="K16" s="6">
-        <f t="shared" ref="K16:K28" si="12">(H16+I16)*((20-(3*D16))/100)</f>
-        <v>1.76</v>
+        <f t="shared" si="12"/>
+        <v>0.44</v>
       </c>
       <c r="L16" s="6">
-        <f t="shared" ref="L16:L28" si="13">(H16+I16)*0.015</f>
-        <v>0.24</v>
+        <f t="shared" si="13"/>
+        <v>0.06</v>
       </c>
       <c r="M16" s="6"/>
     </row>
-    <row r="17" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
+    <row r="17" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>66</v>
+      </c>
       <c r="C17" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D17" s="6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E17" s="11"/>
       <c r="F17" s="14">
         <f t="shared" si="7"/>
-        <v>7.35</v>
+        <v>13</v>
       </c>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
       <c r="I17" s="6">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J17" s="6">
         <f t="shared" si="11"/>
-        <v>0.60000000000000009</v>
+        <v>1</v>
       </c>
       <c r="K17" s="6">
         <f t="shared" si="12"/>
-        <v>0.66</v>
+        <v>2</v>
       </c>
       <c r="L17" s="6">
         <f t="shared" si="13"/>
-        <v>0.09</v>
+        <v>0.15</v>
       </c>
       <c r="M17" s="6"/>
     </row>
-    <row r="18" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
+    <row r="18" spans="1:13" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>67</v>
+      </c>
       <c r="C18" s="6" t="s">
         <v>37</v>
       </c>
       <c r="D18" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E18" s="11"/>
       <c r="F18" s="14">
         <f t="shared" si="7"/>
-        <v>15.78</v>
+        <v>10</v>
       </c>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
       <c r="I18" s="6">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="J18" s="6">
         <f t="shared" si="11"/>
-        <v>1.2000000000000002</v>
+        <v>0.8</v>
       </c>
       <c r="K18" s="6">
         <f t="shared" si="12"/>
-        <v>2.4000000000000004</v>
+        <v>0.88</v>
       </c>
       <c r="L18" s="6">
         <f t="shared" si="13"/>
-        <v>0.18</v>
+        <v>0.12</v>
       </c>
       <c r="M18" s="6"/>
     </row>
-    <row r="19" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
+    <row r="19" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="6">
+        <v>5</v>
+      </c>
       <c r="E19" s="11"/>
       <c r="F19" s="14">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
+      <c r="I19" s="6">
+        <v>4</v>
+      </c>
       <c r="J19" s="6">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="K19" s="6">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="L19" s="6">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="M19" s="6"/>
     </row>
-    <row r="20" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
+    <row r="20" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>69</v>
+      </c>
       <c r="C20" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D20" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E20" s="11"/>
       <c r="F20" s="14">
         <f t="shared" si="7"/>
-        <v>12.25</v>
+        <v>14</v>
       </c>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J20" s="6">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>1.2000000000000002</v>
       </c>
       <c r="K20" s="6">
         <f t="shared" si="12"/>
-        <v>1.1000000000000001</v>
+        <v>0.96</v>
       </c>
       <c r="L20" s="6">
         <f t="shared" si="13"/>
-        <v>0.15</v>
+        <v>0.18</v>
       </c>
       <c r="M20" s="6"/>
     </row>
-    <row r="21" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
+    <row r="21" spans="1:13" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>70</v>
+      </c>
       <c r="C21" s="6" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D21" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E21" s="11"/>
       <c r="F21" s="14">
         <f t="shared" si="7"/>
-        <v>4.66</v>
+        <v>29</v>
       </c>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
       <c r="I21" s="6">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="J21" s="6">
         <f t="shared" si="11"/>
-        <v>0.4</v>
+        <v>2.4000000000000004</v>
       </c>
       <c r="K21" s="6">
         <f t="shared" si="12"/>
-        <v>0.2</v>
+        <v>2.64</v>
       </c>
       <c r="L21" s="6">
         <f t="shared" si="13"/>
-        <v>0.06</v>
+        <v>0.36</v>
       </c>
       <c r="M21" s="6"/>
     </row>
-    <row r="22" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
+    <row r="22" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>56</v>
+      </c>
       <c r="C22" s="6" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D22" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E22" s="11"/>
       <c r="F22" s="14">
         <f t="shared" si="7"/>
-        <v>14.34</v>
+        <v>5</v>
       </c>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
       <c r="I22" s="6">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="J22" s="6">
         <f t="shared" si="11"/>
-        <v>1.2000000000000002</v>
+        <v>0.4</v>
       </c>
       <c r="K22" s="6">
         <f t="shared" si="12"/>
-        <v>0.96</v>
+        <v>0.2</v>
       </c>
       <c r="L22" s="6">
         <f t="shared" si="13"/>
-        <v>0.18</v>
+        <v>0.06</v>
       </c>
       <c r="M22" s="6"/>
     </row>
-    <row r="23" spans="1:13" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
+    <row r="23" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>60</v>
+      </c>
       <c r="C23" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D23" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E23" s="11"/>
       <c r="F23" s="14">
         <f t="shared" si="7"/>
-        <v>36.75</v>
+        <v>5</v>
       </c>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
       <c r="I23" s="6">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="J23" s="6">
         <f t="shared" si="11"/>
-        <v>3</v>
+        <v>0.4</v>
       </c>
       <c r="K23" s="6">
         <f t="shared" si="12"/>
-        <v>3.3</v>
+        <v>0.2</v>
       </c>
       <c r="L23" s="6">
         <f t="shared" si="13"/>
-        <v>0.44999999999999996</v>
+        <v>0.06</v>
       </c>
       <c r="M23" s="6"/>
     </row>
-    <row r="24" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
+    <row r="24" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>57</v>
+      </c>
       <c r="C24" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D24" s="6">
-        <v>5</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="D24" s="6"/>
       <c r="E24" s="11"/>
       <c r="F24" s="14">
         <f t="shared" si="7"/>
-        <v>6.9899999999999993</v>
-      </c>
-      <c r="G24" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="G24" s="6">
+        <v>15</v>
+      </c>
       <c r="H24" s="6"/>
       <c r="I24" s="6">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J24" s="6">
         <f t="shared" si="11"/>
-        <v>0.60000000000000009</v>
+        <v>0</v>
       </c>
       <c r="K24" s="6">
         <f t="shared" si="12"/>
-        <v>0.30000000000000004</v>
+        <v>0</v>
       </c>
       <c r="L24" s="6">
         <f t="shared" si="13"/>
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="M24" s="6"/>
     </row>
-    <row r="25" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
+    <row r="25" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>58</v>
+      </c>
       <c r="C25" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D25" s="6">
-        <v>5</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="D25" s="6"/>
       <c r="E25" s="11"/>
       <c r="F25" s="14">
         <f t="shared" si="7"/>
-        <v>6.9899999999999993</v>
-      </c>
-      <c r="G25" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="G25" s="6">
+        <v>15</v>
+      </c>
       <c r="H25" s="6"/>
-      <c r="I25" s="6">
-        <v>6</v>
-      </c>
+      <c r="I25" s="6"/>
       <c r="J25" s="6">
-        <f t="shared" si="11"/>
-        <v>0.60000000000000009</v>
+        <f>(H25+I25)*0.1</f>
+        <v>0</v>
       </c>
       <c r="K25" s="6">
-        <f t="shared" si="12"/>
-        <v>0.30000000000000004</v>
+        <f>(H25+I25)*((20-(3*D25))/100)</f>
+        <v>0</v>
       </c>
       <c r="L25" s="6">
-        <f t="shared" si="13"/>
-        <v>0.09</v>
+        <f>(H25+I25)*0.015</f>
+        <v>0</v>
       </c>
       <c r="M25" s="6"/>
     </row>
-    <row r="26" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B26" s="6"/>
+        <v>49</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>62</v>
+      </c>
       <c r="C26" s="6" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="D26" s="6"/>
       <c r="E26" s="11"/>
       <c r="F26" s="14">
         <f t="shared" si="7"/>
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G26" s="6">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H26" s="6"/>
-      <c r="I26" s="6">
-        <v>0</v>
-      </c>
+      <c r="I26" s="6"/>
       <c r="J26" s="6">
-        <f t="shared" si="11"/>
+        <f>(H26+I26)*0.1</f>
         <v>0</v>
       </c>
       <c r="K26" s="6">
-        <f t="shared" si="12"/>
+        <f>(H26+I26)*((20-(3*D26))/100)</f>
         <v>0</v>
       </c>
       <c r="L26" s="6">
-        <f t="shared" si="13"/>
+        <f>(H26+I26)*0.015</f>
         <v>0</v>
       </c>
       <c r="M26" s="6"/>
     </row>
-    <row r="27" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C27" s="6" t="s">
         <v>50</v>
-      </c>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6" t="s">
-        <v>51</v>
       </c>
       <c r="D27" s="6"/>
       <c r="E27" s="11"/>
@@ -1450,13 +1635,15 @@
       </c>
       <c r="M27" s="6"/>
     </row>
-    <row r="28" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B28" s="6"/>
+        <v>49</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>73</v>
+      </c>
       <c r="C28" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D28" s="6"/>
       <c r="E28" s="11"/>
@@ -1485,13 +1672,18 @@
       </c>
       <c r="M28" s="6"/>
     </row>
-    <row r="29" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="15"/>
+      <c r="C29" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="D29" s="26"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="28">
+        <f>SUM(F8:F28)</f>
+        <v>234</v>
+      </c>
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
@@ -1500,7 +1692,7 @@
       <c r="L29" s="6"/>
       <c r="M29" s="6"/>
     </row>
-    <row r="30" spans="1:13" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>5</v>
       </c>
@@ -1517,7 +1709,7 @@
       <c r="L30" s="6"/>
       <c r="M30" s="6"/>
     </row>
-    <row r="31" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
@@ -1532,7 +1724,7 @@
       <c r="L31" s="6"/>
       <c r="M31" s="6"/>
     </row>
-    <row r="32" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
@@ -1547,14 +1739,14 @@
       <c r="L32" s="6"/>
       <c r="M32" s="6"/>
     </row>
-    <row r="33" spans="1:13" s="2" customFormat="1" ht="103.2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" s="2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
       <c r="B33" s="18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C33" s="19">
-        <f>SUM(F8:F31)</f>
-        <v>233.78000000000003</v>
+        <f>SUM(F8:F28)</f>
+        <v>234</v>
       </c>
       <c r="D33" s="6"/>
       <c r="E33" s="11"/>
@@ -1567,7 +1759,7 @@
       <c r="L33" s="6"/>
       <c r="M33" s="6"/>
     </row>
-    <row r="34" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
@@ -1582,8 +1774,8 @@
       <c r="L34" s="6"/>
       <c r="M34" s="6"/>
     </row>
-    <row r="35" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="6"/>
+    <row r="35" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="4"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
@@ -1597,8 +1789,8 @@
       <c r="L35" s="6"/>
       <c r="M35" s="6"/>
     </row>
-    <row r="36" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="6"/>
+    <row r="36" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="22"/>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
@@ -1612,8 +1804,8 @@
       <c r="L36" s="6"/>
       <c r="M36" s="6"/>
     </row>
-    <row r="37" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="6"/>
+    <row r="37" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="22"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
@@ -1627,8 +1819,8 @@
       <c r="L37" s="6"/>
       <c r="M37" s="6"/>
     </row>
-    <row r="38" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="6"/>
+    <row r="38" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="22"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
@@ -1642,8 +1834,8 @@
       <c r="L38" s="6"/>
       <c r="M38" s="6"/>
     </row>
-    <row r="39" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="6"/>
+    <row r="39" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="22"/>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
@@ -1657,8 +1849,8 @@
       <c r="L39" s="6"/>
       <c r="M39" s="6"/>
     </row>
-    <row r="40" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="6"/>
+    <row r="40" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="22"/>
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
@@ -1672,8 +1864,8 @@
       <c r="L40" s="6"/>
       <c r="M40" s="6"/>
     </row>
-    <row r="41" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="6"/>
+    <row r="41" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="22"/>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
@@ -1687,8 +1879,8 @@
       <c r="L41" s="6"/>
       <c r="M41" s="6"/>
     </row>
-    <row r="42" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="6"/>
+    <row r="42" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="22"/>
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
@@ -1702,21 +1894,136 @@
       <c r="L42" s="6"/>
       <c r="M42" s="6"/>
     </row>
-    <row r="43" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="23"/>
+      <c r="B43" s="6"/>
       <c r="E43" s="13"/>
       <c r="F43" s="16"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44" s="24"/>
+      <c r="B44" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="F6:I6"/>
     <mergeCell ref="J6:L6"/>
   </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F616C3C2-1EC4-460E-8304-6BAFE6FB5ECA}">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="22">
+        <v>44627</v>
+      </c>
+      <c r="B2" s="6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="22">
+        <v>44634</v>
+      </c>
+      <c r="B3" s="6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="22">
+        <v>44641</v>
+      </c>
+      <c r="B4" s="6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="22">
+        <v>44648</v>
+      </c>
+      <c r="B5" s="6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="22">
+        <v>44655</v>
+      </c>
+      <c r="B6" s="6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="22">
+        <v>44662</v>
+      </c>
+      <c r="B7" s="6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="22">
+        <v>44669</v>
+      </c>
+      <c r="B8" s="6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="23">
+        <v>44676</v>
+      </c>
+      <c r="B9" s="6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="24">
+        <v>44683</v>
+      </c>
+      <c r="B10" s="6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="B11" s="25">
+        <f>SUM(B2:B10)</f>
+        <v>225</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05DD1D56-050E-4021-B876-63863313E2D9}">
   <dimension ref="A1:E5"/>
   <sheetViews>
@@ -1724,54 +2031,54 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.44140625" customWidth="1"/>
-    <col min="4" max="4" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="D2" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>10</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D5" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1780,23 +2087,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <MediaLengthInSeconds xmlns="344005f0-8c48-425a-b4c2-a05af3399037" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101004B10983200D81C459FEA092706B088D6" ma:contentTypeVersion="6" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="d8cc28cfeb9ab0ef0eb25395b97e21a7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="344005f0-8c48-425a-b4c2-a05af3399037" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fe9afcc106c6e9baebde8d4978ed2941" ns2:_="">
     <xsd:import namespace="344005f0-8c48-425a-b4c2-a05af3399037"/>
@@ -1954,25 +2244,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{04B68B77-2DC6-42F7-B45F-F6E8F34D7F04}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="344005f0-8c48-425a-b4c2-a05af3399037"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BD985E29-B6CE-4EE8-950E-6CFA8B21E62F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <MediaLengthInSeconds xmlns="344005f0-8c48-425a-b4c2-a05af3399037" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D898432-F86E-490A-8D97-9AA535407FFC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1988,4 +2277,22 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BD985E29-B6CE-4EE8-950E-6CFA8B21E62F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{04B68B77-2DC6-42F7-B45F-F6E8F34D7F04}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="344005f0-8c48-425a-b4c2-a05af3399037"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>